--- a/biology/Botanique/Renealmia/Renealmia.xlsx
+++ b/biology/Botanique/Renealmia/Renealmia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renealmia est un genre de plante de la famille des Zingiberaceae originaire des régions tropicales d'Afrique, d'Amérique centrale et du Sud.
 Carl von Linné le Jeune l'a décrit pour la première fois en 1782 dans son ouvrage "Supplementum Plantarum systematis vegetabilium" et l'a dédié au botaniste français Paul Reneaulme.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011) :
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 juil. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 juil. 2010) :
 Renealmia cf. africana Harris 7158
 Renealmia alpinia
 Renealmia aromatica
@@ -604,9 +620,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (16 juil. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (16 juil. 2010) :
 Renealmia alpinia (Rottb.) Maas
 Renealmia jamaicensis (Gaertn.) Horan.
 Renealmia occidentalis (Sw.) Sweet</t>
@@ -637,9 +655,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011) :
 </t>
         </is>
       </c>
@@ -668,10 +688,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List (15/11/2021)[4] :
-Espèces valides
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (15/11/2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renealmia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renealmia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Renealmia acreana Maas
 Renealmia africana Benth.
 Renealmia alborosea K.Schum.
@@ -758,7 +816,43 @@
 Renealmia vallensis Maas
 Renealmia variegata Maas &amp; H.Maas
 Renealmia wurdackii Maas
-Noms non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renealmia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renealmia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms non résolus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Renealmia albiflora Kuntze
 Renealmia calthifolia Kuntze
 Renealmia capensis Houtt.
